--- a/IPM2024.xlsx
+++ b/IPM2024.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
   <si>
     <t xml:space="preserve">PRODUCTOS</t>
   </si>
@@ -24,15 +24,6 @@
   </si>
   <si>
     <t xml:space="preserve">Marzo</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Abril</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mayo</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Junio</t>
   </si>
   <si>
     <t xml:space="preserve">INDICE GENERAL</t>
@@ -395,19 +386,10 @@
       <c r="D1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" t="s">
-        <v>6</v>
-      </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="B2" t="n">
         <v>1127.12869962083</v>
@@ -418,19 +400,10 @@
       <c r="D2" t="n">
         <v>1124.90463800704</v>
       </c>
-      <c r="E2" t="n">
-        <v>1139.62148606707</v>
-      </c>
-      <c r="F2" t="n">
-        <v>1135.33272889262</v>
-      </c>
-      <c r="G2" t="n">
-        <v>1131.45542742826</v>
-      </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="B3" t="n">
         <v>1165.65112651633</v>
@@ -441,19 +414,10 @@
       <c r="D3" t="n">
         <v>1161.5149338354</v>
       </c>
-      <c r="E3" t="n">
-        <v>1184.17668264888</v>
-      </c>
-      <c r="F3" t="n">
-        <v>1175.14127899594</v>
-      </c>
-      <c r="G3" t="n">
-        <v>1176.74414341672</v>
-      </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="B4" t="n">
         <v>1236.43222466262</v>
@@ -464,19 +428,10 @@
       <c r="D4" t="n">
         <v>1216.54414995169</v>
       </c>
-      <c r="E4" t="n">
-        <v>1247.31402646858</v>
-      </c>
-      <c r="F4" t="n">
-        <v>1240.56103399486</v>
-      </c>
-      <c r="G4" t="n">
-        <v>1269.06755395985</v>
-      </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="B5" t="n">
         <v>1127.52979595896</v>
@@ -487,19 +442,10 @@
       <c r="D5" t="n">
         <v>1131.87726229848</v>
       </c>
-      <c r="E5" t="n">
-        <v>1150.17213034184</v>
-      </c>
-      <c r="F5" t="n">
-        <v>1139.90746416954</v>
-      </c>
-      <c r="G5" t="n">
-        <v>1127.02054003007</v>
-      </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="B6" t="n">
         <v>1064.48402028204</v>
@@ -510,19 +456,10 @@
       <c r="D6" t="n">
         <v>1065.36944182414</v>
       </c>
-      <c r="E6" t="n">
-        <v>1067.16639360065</v>
-      </c>
-      <c r="F6" t="n">
-        <v>1070.59657239528</v>
-      </c>
-      <c r="G6" t="n">
-        <v>1057.80749505736</v>
-      </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="B7" t="n">
         <v>1079.99076311422</v>
@@ -532,15 +469,6 @@
       </c>
       <c r="D7" t="n">
         <v>1080.89666422532</v>
-      </c>
-      <c r="E7" t="n">
-        <v>1082.73517902706</v>
-      </c>
-      <c r="F7" t="n">
-        <v>1086.24469696126</v>
-      </c>
-      <c r="G7" t="n">
-        <v>1073.15981160499</v>
       </c>
     </row>
   </sheetData>

--- a/IPM2024.xlsx
+++ b/IPM2024.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
   <si>
     <t xml:space="preserve">PRODUCTOS</t>
   </si>
@@ -24,6 +24,15 @@
   </si>
   <si>
     <t xml:space="preserve">Marzo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Abril</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mayo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Junio</t>
   </si>
   <si>
     <t xml:space="preserve">INDICE GENERAL</t>
@@ -386,10 +395,19 @@
       <c r="D1" t="s">
         <v>3</v>
       </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="B2" t="n">
         <v>1127.12869962083</v>
@@ -400,10 +418,19 @@
       <c r="D2" t="n">
         <v>1124.90463800704</v>
       </c>
+      <c r="E2" t="n">
+        <v>1139.62148606707</v>
+      </c>
+      <c r="F2" t="n">
+        <v>1135.33272889262</v>
+      </c>
+      <c r="G2" t="n">
+        <v>1131.45542742826</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="B3" t="n">
         <v>1165.65112651633</v>
@@ -414,10 +441,19 @@
       <c r="D3" t="n">
         <v>1161.5149338354</v>
       </c>
+      <c r="E3" t="n">
+        <v>1184.17668264888</v>
+      </c>
+      <c r="F3" t="n">
+        <v>1175.14127899594</v>
+      </c>
+      <c r="G3" t="n">
+        <v>1176.74414341672</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="B4" t="n">
         <v>1236.43222466262</v>
@@ -428,10 +464,19 @@
       <c r="D4" t="n">
         <v>1216.54414995169</v>
       </c>
+      <c r="E4" t="n">
+        <v>1247.31402646858</v>
+      </c>
+      <c r="F4" t="n">
+        <v>1240.56103399486</v>
+      </c>
+      <c r="G4" t="n">
+        <v>1269.06755395985</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="B5" t="n">
         <v>1127.52979595896</v>
@@ -442,10 +487,19 @@
       <c r="D5" t="n">
         <v>1131.87726229848</v>
       </c>
+      <c r="E5" t="n">
+        <v>1150.17213034184</v>
+      </c>
+      <c r="F5" t="n">
+        <v>1139.90746416954</v>
+      </c>
+      <c r="G5" t="n">
+        <v>1127.02054003007</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="B6" t="n">
         <v>1064.48402028204</v>
@@ -456,10 +510,19 @@
       <c r="D6" t="n">
         <v>1065.36944182414</v>
       </c>
+      <c r="E6" t="n">
+        <v>1067.16639360065</v>
+      </c>
+      <c r="F6" t="n">
+        <v>1070.59657239528</v>
+      </c>
+      <c r="G6" t="n">
+        <v>1057.80749505736</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="B7" t="n">
         <v>1079.99076311422</v>
@@ -469,6 +532,15 @@
       </c>
       <c r="D7" t="n">
         <v>1080.89666422532</v>
+      </c>
+      <c r="E7" t="n">
+        <v>1082.73517902706</v>
+      </c>
+      <c r="F7" t="n">
+        <v>1086.24469696126</v>
+      </c>
+      <c r="G7" t="n">
+        <v>1073.15981160499</v>
       </c>
     </row>
   </sheetData>
